--- a/biology/Mycologie/Rubroboletus_demonensis/Rubroboletus_demonensis.xlsx
+++ b/biology/Mycologie/Rubroboletus_demonensis/Rubroboletus_demonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rubroboletus demonensis est une espèce toxique très rare de champignons (Fungi) basidiomycètes du genre Rubroboletus dans la famille des Boletaceae. C'est une espèce intermédiaire entre Rubroboletus legaliae et Rubroboletus rubrosanguineus. Elle peut être définie comme R. rubrosanguineus avec un habitat dans les bois de feuillus thermophiles. Elle se distingue par la couleur de son chapeau qui devient rapidement rouge pourpre[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rubroboletus demonensis est une espèce toxique très rare de champignons (Fungi) basidiomycètes du genre Rubroboletus dans la famille des Boletaceae. C'est une espèce intermédiaire entre Rubroboletus legaliae et Rubroboletus rubrosanguineus. Elle peut être définie comme R. rubrosanguineus avec un habitat dans les bois de feuillus thermophiles. Elle se distingue par la couleur de son chapeau qui devient rapidement rouge pourpre.
 </t>
         </is>
       </c>
@@ -511,20 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom binominal accepté (et basionyme) est Rubroboletus demonensis Vasquez, Simonini, Svetasheva, Mikšík &amp; Vizzini, 2017[2].
-Synonymes
-Rubroboletus demonensis a pour synonymes[3] :
-Boletus rhodopurpureus f. polypurpureus s. Ruiz Fernandez &amp; Ruiz Pastor, Guía Micologica Tomo n. 4, Supl. Orden Boletales en España: 62 (2006)
-Boletus rubrosanguineus s. Calzada Dominguez 2007, Guía de los Boletos de España y Portugal: 163 (2007)
-Boletus legaliae s. Rodà, Funghi Aspromontani Comparati Boletales: 96 (right), 97 (top), countercover (2012)
-Phylogénie
-Rubroboletus demonensis a été décrit en 2017 pour intégrer les spécimens précédemment signalés comme Boletus rhodopurpureus f. polypurpureus (2006), Boletus rubrosanguineus (2007) et Boletus legaliae (2012) ainsi que de nouvelles découvertes[4]. Par conséquent, bien qu'elle n'ait été publiée que récemment, en termes d'écologie, il ne s'agit pas d'une espèce peu connue.
-En Macédoine du Nord, les espèces de ce groupe de bolets (R. rubrosanguineus, R. legaliae) partageant des préférences écologiques similaires sont rarement trouvées, dans pas plus de cinq sites au total, R. demonensis inclus[5].
-Étymologie
-L'épithète spécifique du nom du taxon vient du mot latin demonensis et fait référence à l'ancien nom Valdemone, qui était l'une des trois vallées (valli) ou domaines réels (reali dominii) dans lesquels la région de la Sicile était subdivisée depuis la domination musulmane jusqu'à la période des Bourbons ; le Val demone, par rapport au Val di Noto et au Val di Mazzara, constitue la partie nord-est de la Sicile, une zone qui correspond étroitement à l'habitat actuel de R. demonensis.
-En outre, l'épithète demonensis rappelle bien les caractéristiques particulières de l'espèce, à savoir la couleur rouge flamboyant du chapeau et des pores, caractéristiques partagées avec d'autres espèces « diaboliques » proches, appartenant au même genre (R. satanas). En outre, des circonstances imprévisibles auraient voulu que l'une des premières stations de croissance de R. demonensis soit la localité Pizzo Inferno (c'est-à-dire le pic de l'enfer) sur la chaîne des Nebrodi, dans la commune de Floresta[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom binominal accepté (et basionyme) est Rubroboletus demonensis Vasquez, Simonini, Svetasheva, Mikšík &amp; Vizzini, 2017.
 </t>
         </is>
       </c>
@@ -550,21 +553,208 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rubroboletus demonensis a pour synonymes :
+Boletus rhodopurpureus f. polypurpureus s. Ruiz Fernandez &amp; Ruiz Pastor, Guía Micologica Tomo n. 4, Supl. Orden Boletales en España: 62 (2006)
+Boletus rubrosanguineus s. Calzada Dominguez 2007, Guía de los Boletos de España y Portugal: 163 (2007)
+Boletus legaliae s. Rodà, Funghi Aspromontani Comparati Boletales: 96 (right), 97 (top), countercover (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rubroboletus_demonensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_demonensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rubroboletus demonensis a été décrit en 2017 pour intégrer les spécimens précédemment signalés comme Boletus rhodopurpureus f. polypurpureus (2006), Boletus rubrosanguineus (2007) et Boletus legaliae (2012) ainsi que de nouvelles découvertes. Par conséquent, bien qu'elle n'ait été publiée que récemment, en termes d'écologie, il ne s'agit pas d'une espèce peu connue.
+En Macédoine du Nord, les espèces de ce groupe de bolets (R. rubrosanguineus, R. legaliae) partageant des préférences écologiques similaires sont rarement trouvées, dans pas plus de cinq sites au total, R. demonensis inclus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rubroboletus_demonensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_demonensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique du nom du taxon vient du mot latin demonensis et fait référence à l'ancien nom Valdemone, qui était l'une des trois vallées (valli) ou domaines réels (reali dominii) dans lesquels la région de la Sicile était subdivisée depuis la domination musulmane jusqu'à la période des Bourbons ; le Val demone, par rapport au Val di Noto et au Val di Mazzara, constitue la partie nord-est de la Sicile, une zone qui correspond étroitement à l'habitat actuel de R. demonensis.
+En outre, l'épithète demonensis rappelle bien les caractéristiques particulières de l'espèce, à savoir la couleur rouge flamboyant du chapeau et des pores, caractéristiques partagées avec d'autres espèces « diaboliques » proches, appartenant au même genre (R. satanas). En outre, des circonstances imprévisibles auraient voulu que l'une des premières stations de croissance de R. demonensis soit la localité Pizzo Inferno (c'est-à-dire le pic de l'enfer) sur la chaîne des Nebrodi, dans la commune de Floresta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubroboletus_demonensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_demonensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques de Rubroboletus demonensis sont les suivantes[1],[3],[5] :
-Son chapeau mesure 6 à 15 cm. Sa marge est plus au moins régulière chez les jeunes sujets, devenant inégale, plus au moins ondulée-lobée, parfois nettement lobée chez les spécimens matures. Présentant une couleur au tout début blanchâtre, gris pâle, ocre pâle, et bientôt, à partir de la marge, rose-lilas pâle sale, puis fortement variable de gris clair à rose-lilas, à rouge pourpre selon les conditions environnementales. Par temps humide ou dans les bois ombragés, il présente des couleurs particulièrement vives, tendant au rouge sang pourpre, assez uniformément réparties sur la surface du pileus. Dans certains cas, la couleur rouge semble ne pas se développer complètement dans les pores et le stipe, et dans ce cas, la couleur du pileus se stabilise sur une couleur uniforme rose-lilas, qui devient rouge sang lorsqu'il est meurtri. Inversement, par temps sec ou dans les zones exposées au soleil, la couleur du pileus est beaucoup plus variable, avec des couleurs rose chair qui passent parfois au gris brunâtre ou à des tons plus pâles tendant vers le blanc crème. Cependant, dans la plupart des sporophores observés, de grandes zones intensément rougeâtres ou de larges taches rouge sang persistent, voire s'intensifient à la suite d'un frottement, d'un contact ou d'une autre manipulation. La surface est typiquement tomenteuse et sèche au début, parfois lisse et visqueuse par temps humide ; la cuticule n'est pas détachable de la chair sous-jacente. Souvent, dans les grands sporophores matures, le chapeau apparaît agréablement rouge brillant, plus foncé lorsqu'il est meurtri. En regardant de près la surface du pileus, également à l'aide d'une lentille, on peut remarquer de minuscules écailles concolores en relief[1],[3],[5].
-L'hyménophore présente des tubes mesurant 0,5-1,2 (-2) cm, de couleur jaune foncé à vert olive, se décolorant en bleu lorsqu'ils sont coupés. Quant aux pores, ils sont petits, ronds, généralement rouge pourpre dès le début, rouge foncé, bleu terne au toucher, dans les sporophores âgés jaune-orange vers le bord du chapeau. Dans certaines collections, les jeunes spécimens ont des pores jaunes, qui avec l'âge développent une couleur orange, rouge-orange, rappelant celle d'un R. legaliae typique. La sporée est de couleur brun tabac[1],[3],[5].
-Le stipe, mesurant 8 à 12 cm de long et 4 à 8 cm de large, est volumineux, robuste et large, cylindrique, souvent progressivement élargi ou clavé vers la base, parfois aussi obèse, non radicant. Sa surface est dans de rares cas jaune-orange au tout début, avec une base violacée, puis, passant par des tons intermédiaires orange-rouge, à la fin rouge vif, rouge sang, rouge pourpre, souvent plus sombre à la base, souvent avec une bande évidente jaune foncé ou jaune orangé (0,5 à 1,5 cm de large) dans la partie supérieure. Dans certains aspects xanthoïdes, le stipe ne développe pas de tons rouges dans la moitié supérieure, restant jaune ou jaune orangé, mais la base du stipe est de toute façon rouge, rouge pourpre ou rouge sang. L'extrême base du stipe est recouverte d'une couche blanchâtre, granuleuse et furfuracée, particulièrement évidente dans les sporophores récoltés sur des sols humides[1],[3],[5].
-La chair est de consistance ferme, de couleur jaune, jaune foncé ou jaune citron, particulièrement intense dans les blessures du stipe et du chapeau. Lorsque la chair est exposée (coupe), elle devient rapidement bleu ciel, bleu ou bleu foncé, par une oxydation parfois faible, puis qui s'estompe pour devenir gris pâle-crème. Dans certains cas, dans la chair du chapeau exposé ou surtout dans la partie inférieure du stipe, des nuances de betterave peuvent apparaître. La couche sous-hyménophorale est quant à elle concolore[1],[3],[5].
-Sa saveur est douce, légèrement acide, tandis que son odeur faible est fongique et agréable[1],[3],[5].
-Réactions chimiques
-Il se produit une réaction amyloïde dans la chair à la base du stipe, selon la procédure d'Imler (Imler 1950) : les tissus à la base du stipe ne sont pas amyloïdes dans toutes les collections si on les examine au microscope[1].
-Caractéristiques microscopiques
-Ses basides sont généralement à 4 spores, hyalines, (23.8-) 31.3-47.7 (-62.6) × (4.2-) 7.7-12.7 (-13) µm (34/2/2). Ses cystides faciales sont fusiformes, versiformes, parfois lagéniformes ou hyalines, (15,5-) 29,5-44,7 (-50,7) × (4,2-) 5,3-7,7 (-9,5) (64/2/2). Ses cystides marginales sont similaires aux cystidies faciales mais plus petites, plutôt versiformes que fusiformes ou lagéniformes, hyalines (15.8-) 20-29 (37.2) × (3.5-) 4.3-6.3 (-7.9) (46/2/2). Le pileipellis présente un trichodermium enchevêtré, tendant vers un cutis, souvent gélatinisé chez les individus matures, constitué d'éléments minces, cylindriques, s'effondrant progressivement lors du développement des basidiomes. Ses éléments terminaux mesurent (33.3-) 32.9-42.9 (-44.3) × (5-) 5.2-5.9 (-6.9) µm (138/5/5), Q = (6.6-) 6.4-8.1, Qm = 7.3, avec une pointe arrondie ou effilée, parfois clavée, rarement capitulée ou en forme de poire, avec un pigment vacuolaire jaune pâle et des pigments incrustés çà et là, principalement dans les hyphes les plus profonds et les plus proches de l'hypoderme. Le trama hyménophoral est boletoïde au sens de Singer (1965, 1967)[1],[3],[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques de Rubroboletus demonensis sont les suivantes :
+Son chapeau mesure 6 à 15 cm. Sa marge est plus au moins régulière chez les jeunes sujets, devenant inégale, plus au moins ondulée-lobée, parfois nettement lobée chez les spécimens matures. Présentant une couleur au tout début blanchâtre, gris pâle, ocre pâle, et bientôt, à partir de la marge, rose-lilas pâle sale, puis fortement variable de gris clair à rose-lilas, à rouge pourpre selon les conditions environnementales. Par temps humide ou dans les bois ombragés, il présente des couleurs particulièrement vives, tendant au rouge sang pourpre, assez uniformément réparties sur la surface du pileus. Dans certains cas, la couleur rouge semble ne pas se développer complètement dans les pores et le stipe, et dans ce cas, la couleur du pileus se stabilise sur une couleur uniforme rose-lilas, qui devient rouge sang lorsqu'il est meurtri. Inversement, par temps sec ou dans les zones exposées au soleil, la couleur du pileus est beaucoup plus variable, avec des couleurs rose chair qui passent parfois au gris brunâtre ou à des tons plus pâles tendant vers le blanc crème. Cependant, dans la plupart des sporophores observés, de grandes zones intensément rougeâtres ou de larges taches rouge sang persistent, voire s'intensifient à la suite d'un frottement, d'un contact ou d'une autre manipulation. La surface est typiquement tomenteuse et sèche au début, parfois lisse et visqueuse par temps humide ; la cuticule n'est pas détachable de la chair sous-jacente. Souvent, dans les grands sporophores matures, le chapeau apparaît agréablement rouge brillant, plus foncé lorsqu'il est meurtri. En regardant de près la surface du pileus, également à l'aide d'une lentille, on peut remarquer de minuscules écailles concolores en relief.
+L'hyménophore présente des tubes mesurant 0,5-1,2 (-2) cm, de couleur jaune foncé à vert olive, se décolorant en bleu lorsqu'ils sont coupés. Quant aux pores, ils sont petits, ronds, généralement rouge pourpre dès le début, rouge foncé, bleu terne au toucher, dans les sporophores âgés jaune-orange vers le bord du chapeau. Dans certaines collections, les jeunes spécimens ont des pores jaunes, qui avec l'âge développent une couleur orange, rouge-orange, rappelant celle d'un R. legaliae typique. La sporée est de couleur brun tabac.
+Le stipe, mesurant 8 à 12 cm de long et 4 à 8 cm de large, est volumineux, robuste et large, cylindrique, souvent progressivement élargi ou clavé vers la base, parfois aussi obèse, non radicant. Sa surface est dans de rares cas jaune-orange au tout début, avec une base violacée, puis, passant par des tons intermédiaires orange-rouge, à la fin rouge vif, rouge sang, rouge pourpre, souvent plus sombre à la base, souvent avec une bande évidente jaune foncé ou jaune orangé (0,5 à 1,5 cm de large) dans la partie supérieure. Dans certains aspects xanthoïdes, le stipe ne développe pas de tons rouges dans la moitié supérieure, restant jaune ou jaune orangé, mais la base du stipe est de toute façon rouge, rouge pourpre ou rouge sang. L'extrême base du stipe est recouverte d'une couche blanchâtre, granuleuse et furfuracée, particulièrement évidente dans les sporophores récoltés sur des sols humides.
+La chair est de consistance ferme, de couleur jaune, jaune foncé ou jaune citron, particulièrement intense dans les blessures du stipe et du chapeau. Lorsque la chair est exposée (coupe), elle devient rapidement bleu ciel, bleu ou bleu foncé, par une oxydation parfois faible, puis qui s'estompe pour devenir gris pâle-crème. Dans certains cas, dans la chair du chapeau exposé ou surtout dans la partie inférieure du stipe, des nuances de betterave peuvent apparaître. La couche sous-hyménophorale est quant à elle concolore.
+Sa saveur est douce, légèrement acide, tandis que son odeur faible est fongique et agréable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rubroboletus_demonensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_demonensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se produit une réaction amyloïde dans la chair à la base du stipe, selon la procédure d'Imler (Imler 1950) : les tissus à la base du stipe ne sont pas amyloïdes dans toutes les collections si on les examine au microscope.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rubroboletus_demonensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_demonensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses basides sont généralement à 4 spores, hyalines, (23.8-) 31.3-47.7 (-62.6) × (4.2-) 7.7-12.7 (-13) µm (34/2/2). Ses cystides faciales sont fusiformes, versiformes, parfois lagéniformes ou hyalines, (15,5-) 29,5-44,7 (-50,7) × (4,2-) 5,3-7,7 (-9,5) (64/2/2). Ses cystides marginales sont similaires aux cystidies faciales mais plus petites, plutôt versiformes que fusiformes ou lagéniformes, hyalines (15.8-) 20-29 (37.2) × (3.5-) 4.3-6.3 (-7.9) (46/2/2). Le pileipellis présente un trichodermium enchevêtré, tendant vers un cutis, souvent gélatinisé chez les individus matures, constitué d'éléments minces, cylindriques, s'effondrant progressivement lors du développement des basidiomes. Ses éléments terminaux mesurent (33.3-) 32.9-42.9 (-44.3) × (5-) 5.2-5.9 (-6.9) µm (138/5/5), Q = (6.6-) 6.4-8.1, Qm = 7.3, avec une pointe arrondie ou effilée, parfois clavée, rarement capitulée ou en forme de poire, avec un pigment vacuolaire jaune pâle et des pigments incrustés çà et là, principalement dans les hyphes les plus profonds et les plus proches de l'hypoderme. Le trama hyménophoral est boletoïde au sens de Singer (1965, 1967).
 </t>
         </is>
       </c>
